--- a/docs/ValueSet-ConsentExchangePolicies.xlsx
+++ b/docs/ValueSet-ConsentExchangePolicies.xlsx
@@ -46,7 +46,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T09:00:56-05:00</t>
+    <t>2023-11-18T22:49:36-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ConsentExchangePolicies.xlsx
+++ b/docs/ValueSet-ConsentExchangePolicies.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from PayorToPayorExch" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSets" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T16:51:20-06:00</t>
+    <t>2025-01-01T21:35:28-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ConsentExchangePolicies.xlsx
+++ b/docs/ValueSet-ConsentExchangePolicies.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-01T21:35:28-07:00</t>
+    <t>2025-01-01T22:24:49-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ConsentExchangePolicies.xlsx
+++ b/docs/ValueSet-ConsentExchangePolicies.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-01T22:24:49-07:00</t>
+    <t>2025-03-01T21:28:29-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ConsentExchangePolicies.xlsx
+++ b/docs/ValueSet-ConsentExchangePolicies.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-01T21:28:29-06:00</t>
+    <t>2025-03-04T10:21:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
